--- a/ExcelExamples/ZARFRA.xlsx
+++ b/ExcelExamples/ZARFRA.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ZARFra" sheetId="1" r:id="rId1"/>
     <sheet name="Curves" sheetId="2" r:id="rId2"/>
     <sheet name="TradeInfo&amp;Test" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -245,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -260,8 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -570,17 +567,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -596,7 +593,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -604,7 +601,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +609,7 @@
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -620,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -633,13 +630,13 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateZARFRA(C2,C3,C4,C5,C6,C7)</f>
-        <v>Fra00001.16:53:54-4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Fra00001.21:51:40-4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
         <v>36</v>
       </c>
@@ -652,13 +649,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="str">
         <f>_xll.QSA.Value(C2&amp;":Value",B10,C13,Curves!B26)</f>
-        <v>Fra00001:Value.16:53:54-5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Fra00001:Value.21:51:40-5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>24</v>
       </c>
@@ -677,17 +674,17 @@
   <dimension ref="B3:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +692,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -703,7 +700,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -711,7 +708,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <f>ZARFra!C13</f>
         <v>42808</v>
@@ -720,7 +717,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f>EDATE(B7,10*12)</f>
         <v>46460</v>
@@ -729,10 +726,10 @@
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
-        <v>ZARDiscount.16:53:46-1</v>
+        <v>ZARDiscount.21:51:40-1</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -740,7 +737,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,7 +748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
         <f>"forecast"&amp;C15</f>
         <v>forecastJIBAR3M</v>
@@ -761,11 +758,11 @@
       </c>
       <c r="D15" s="11" t="str">
         <f>B10</f>
-        <v>ZARDiscount.16:53:46-1</v>
+        <v>ZARDiscount.21:51:40-1</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B15,C15,D15)</f>
-        <v>forecastJIBAR3M.16:53:54-2</v>
+        <v>forecastJIBAR3M.21:51:40-2</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.35">
@@ -773,7 +770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,34 +778,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="11" t="str">
         <f>B10</f>
-        <v>ZARDiscount.16:53:46-1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>ZARDiscount.21:51:40-1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="11" t="str">
         <f>E15</f>
-        <v>forecastJIBAR3M.16:53:54-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>forecastJIBAR3M.21:51:40-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="str">
         <f>_xll.QSA.CreateCurveModel(C19,C20,C21)</f>
-        <v>curveModel.16:53:54-3</v>
+        <v>curveModel.21:51:40-3</v>
       </c>
     </row>
   </sheetData>
@@ -820,16 +817,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -837,7 +834,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="12">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B2)</f>
+        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B2)</f>
         <v>1000000</v>
       </c>
       <c r="G2" s="13" t="s">
@@ -849,14 +846,14 @@
         <v>25</v>
       </c>
       <c r="C3" s="12">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B3)</f>
+        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B3)</f>
         <v>0.24931506849315069</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="17">
-        <f>_xll.QSA.GetDF(Curves!$B$10,C5)</f>
+      <c r="G3" s="15">
+        <f ca="1">_xll.QSA.GetDF(Curves!$B$10,C5)</f>
         <v>0.98091730138860533</v>
       </c>
     </row>
@@ -864,15 +861,15 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B4)</f>
+      <c r="C4" s="12">
+        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B4)</f>
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="17">
-        <f>_xll.QSA.GetDF(Curves!$B$10,C6)</f>
+      <c r="G4" s="15">
+        <f ca="1">_xll.QSA.GetDF(Curves!$B$10,C6)</f>
         <v>0.9633461657801673</v>
       </c>
     </row>
@@ -880,15 +877,15 @@
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="14">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B5)</f>
+      <c r="C5" s="12">
+        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B5)</f>
         <v>42905</v>
       </c>
       <c r="F5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="16">
-        <f>EDATE(C5,3)</f>
+      <c r="G5" s="14">
+        <f ca="1">EDATE(C5,3)</f>
         <v>42997</v>
       </c>
     </row>
@@ -896,15 +893,15 @@
       <c r="B6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="14">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B6)</f>
+      <c r="C6" s="12">
+        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B6)</f>
         <v>42996</v>
       </c>
       <c r="F6" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="17">
-        <f>_xll.QSA.GetDF(Curves!B10,G5)</f>
+      <c r="G6" s="15">
+        <f ca="1">_xll.QSA.GetDF(Curves!B10,G5)</f>
         <v>0.96315483520193168</v>
       </c>
     </row>
@@ -913,14 +910,14 @@
         <v>28</v>
       </c>
       <c r="C7" s="12" t="str">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B7)</f>
-        <v>ZAR:JIBAR:3M</v>
+        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B7)</f>
+        <v>floatIndex.21:52:22-6</v>
       </c>
       <c r="F7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="17">
-        <f>(G5-C5)/365</f>
+      <c r="G7" s="15">
+        <f ca="1">(G5-C5)/365</f>
         <v>0.25205479452054796</v>
       </c>
     </row>
@@ -928,15 +925,15 @@
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="str">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B8)</f>
-        <v>True</v>
+      <c r="C8" s="12" t="b">
+        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B8)</f>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="18">
-        <f>(G3/G6-1)/G7</f>
+      <c r="G8" s="16">
+        <f ca="1">(G3/G6-1)/G7</f>
         <v>7.3166485093756339E-2</v>
       </c>
     </row>
@@ -945,14 +942,14 @@
         <v>29</v>
       </c>
       <c r="C9" s="12" t="str">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B9)</f>
-        <v>ZAR</v>
+        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B9)</f>
+        <v>ccy.21:52:22-7</v>
       </c>
       <c r="F9" t="s">
         <v>34</v>
       </c>
-      <c r="G9" s="17">
-        <f>(G8-C4)*C2*C3/(1+G8*C3)</f>
+      <c r="G9" s="15">
+        <f ca="1">(G8-C4)*C2*C3/(1+G8*C3)</f>
         <v>-81.660677847241701</v>
       </c>
     </row>
@@ -960,8 +957,8 @@
       <c r="F10" t="s">
         <v>35</v>
       </c>
-      <c r="G10" s="17">
-        <f>G9*G3</f>
+      <c r="G10" s="15">
+        <f ca="1">G9*G3</f>
         <v>-80.102371743480589</v>
       </c>
     </row>
@@ -969,8 +966,8 @@
       <c r="F11" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="19">
-        <f>G10-ZARFra!C18</f>
+      <c r="G11" s="17">
+        <f ca="1">G10-ZARFra!C18</f>
         <v>0</v>
       </c>
     </row>

--- a/ExcelExamples/ZARFRA.xlsx
+++ b/ExcelExamples/ZARFRA.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="ZARFra" sheetId="1" r:id="rId1"/>
     <sheet name="Curves" sheetId="2" r:id="rId2"/>
     <sheet name="TradeInfo&amp;Test" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
 </workbook>
 </file>
 
@@ -66,9 +66,6 @@
     <t>discountCuve</t>
   </si>
   <si>
-    <t>JIBAR3M</t>
-  </si>
-  <si>
     <t>QSA.CreateCurveModel</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>ZAR.JIBAR.3M</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,18 +627,18 @@
     </row>
     <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateZARFRA(C2,C3,C4,C5,C6,C7)</f>
-        <v>Fra00001.21:51:40-4</v>
+        <v>Fra00001.19:46:46-37</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3">
         <v>42808</v>
@@ -646,18 +646,18 @@
     </row>
     <row r="15" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="str">
         <f>_xll.QSA.Value(C2&amp;":Value",B10,C13,Curves!B26)</f>
-        <v>Fra00001:Value.21:51:40-5</v>
+        <v>Fra00001:Value.19:46:46-38</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="12">
         <f>_xll.QSA.GetResults(B16,"value")</f>
@@ -674,14 +674,15 @@
   <dimension ref="B3:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.25">
@@ -729,7 +730,7 @@
     <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
-        <v>ZARDiscount.21:51:40-1</v>
+        <v>ZARDiscount.19:46:46-34</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -750,24 +751,24 @@
     </row>
     <row r="15" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
-        <f>"forecast"&amp;C15</f>
-        <v>forecastJIBAR3M</v>
+        <f>"Curve_Jibar3M"</f>
+        <v>Curve_Jibar3M</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D15" s="11" t="str">
         <f>B10</f>
-        <v>ZARDiscount.21:51:40-1</v>
+        <v>ZARDiscount.19:46:46-34</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B15,C15,D15)</f>
-        <v>forecastJIBAR3M.21:51:40-2</v>
+        <v>Curve_Jibar3M.19:46:46-35</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
@@ -775,37 +776,37 @@
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C20" s="11" t="str">
         <f>B10</f>
-        <v>ZARDiscount.21:51:40-1</v>
+        <v>ZARDiscount.19:46:46-34</v>
       </c>
     </row>
     <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="11" t="str">
         <f>E15</f>
-        <v>forecastJIBAR3M.21:51:40-2</v>
+        <v>Curve_Jibar3M.19:46:46-35</v>
       </c>
     </row>
     <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="11"/>
     </row>
     <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="str">
         <f>_xll.QSA.CreateCurveModel(C19,C20,C21)</f>
-        <v>curveModel.21:51:40-3</v>
+        <v>curveModel.19:46:46-36</v>
       </c>
     </row>
   </sheetData>
@@ -817,8 +818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -834,26 +835,26 @@
         <v>3</v>
       </c>
       <c r="C2" s="12">
-        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B2)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B2)</f>
         <v>1000000</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="12">
-        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B3)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B3)</f>
         <v>0.24931506849315069</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" s="15">
-        <f ca="1">_xll.QSA.GetDF(Curves!$B$10,C5)</f>
+        <f>_xll.QSA.GetDF(Curves!$B$10,C5)</f>
         <v>0.98091730138860533</v>
       </c>
     </row>
@@ -862,62 +863,62 @@
         <v>1</v>
       </c>
       <c r="C4" s="12">
-        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B4)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B4)</f>
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G4" s="15">
-        <f ca="1">_xll.QSA.GetDF(Curves!$B$10,C6)</f>
+        <f>_xll.QSA.GetDF(Curves!$B$10,C6)</f>
         <v>0.9633461657801673</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C5" s="12">
-        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B5)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B5)</f>
         <v>42905</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="14">
-        <f ca="1">EDATE(C5,3)</f>
+        <f>EDATE(C5,3)</f>
         <v>42997</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C6" s="12">
-        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B6)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B6)</f>
         <v>42996</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G6" s="15">
-        <f ca="1">_xll.QSA.GetDF(Curves!B10,G5)</f>
+        <f>_xll.QSA.GetDF(Curves!B10,G5)</f>
         <v>0.96315483520193168</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12" t="str">
-        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B7)</f>
-        <v>floatIndex.21:52:22-6</v>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B7)</f>
+        <v>floatIndex.19:46:46-40</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G7" s="15">
-        <f ca="1">(G5-C5)/365</f>
+        <f>(G5-C5)/365</f>
         <v>0.25205479452054796</v>
       </c>
     </row>
@@ -926,48 +927,48 @@
         <v>2</v>
       </c>
       <c r="C8" s="12" t="b">
-        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B8)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B8)</f>
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G8" s="16">
-        <f ca="1">(G3/G6-1)/G7</f>
+        <f>(G3/G6-1)/G7</f>
         <v>7.3166485093756339E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12" t="str">
-        <f ca="1">_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B9)</f>
-        <v>ccy.21:52:22-7</v>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B9)</f>
+        <v>ccy.19:46:46-39</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G9" s="15">
-        <f ca="1">(G8-C4)*C2*C3/(1+G8*C3)</f>
+        <f>(G8-C4)*C2*C3/(1+G8*C3)</f>
         <v>-81.660677847241701</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G10" s="15">
-        <f ca="1">G9*G3</f>
+        <f>G9*G3</f>
         <v>-80.102371743480589</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="17">
-        <f ca="1">G10-ZARFra!C18</f>
+        <f>G10-ZARFra!C18</f>
         <v>0</v>
       </c>
     </row>

--- a/ExcelExamples/ZARFRA.xlsx
+++ b/ExcelExamples/ZARFRA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="ZARFra" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="TradeInfo&amp;Test" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -67,9 +66,6 @@
     <t>discountCuve</t>
   </si>
   <si>
-    <t>JIBAR3M</t>
-  </si>
-  <si>
     <t>QSA.CreateCurveModel</t>
   </si>
   <si>
@@ -140,6 +136,9 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>ZAR.JIBAR.3M</t>
   </si>
 </sst>
 </file>
@@ -245,7 +244,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -260,8 +259,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="15" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -571,16 +568,16 @@
   <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="31.42578125" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +585,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -596,7 +593,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -604,7 +601,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -612,7 +609,7 @@
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -620,7 +617,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -630,18 +627,18 @@
     </row>
     <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateZARFRA(C2,C3,C4,C5,C6,C7)</f>
-        <v>Fra00001.16:53:54-4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Fra00001.19:46:46-37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C13" s="3">
         <v>42808</v>
@@ -649,18 +646,18 @@
     </row>
     <row r="15" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B15" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="7" t="str">
         <f>_xll.QSA.Value(C2&amp;":Value",B10,C13,Curves!B26)</f>
-        <v>Fra00001:Value.16:53:54-5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Fra00001:Value.19:46:46-38</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="12">
         <f>_xll.QSA.GetResults(B16,"value")</f>
@@ -677,17 +674,18 @@
   <dimension ref="B3:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -695,7 +693,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -703,7 +701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -711,7 +709,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
         <f>ZARFra!C13</f>
         <v>42808</v>
@@ -720,7 +718,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
         <f>EDATE(B7,10*12)</f>
         <v>46460</v>
@@ -729,10 +727,10 @@
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
-        <v>ZARDiscount.16:53:46-1</v>
+        <v>ZARDiscount.19:46:46-34</v>
       </c>
     </row>
     <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.35">
@@ -740,7 +738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -751,64 +749,64 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="str">
-        <f>"forecast"&amp;C15</f>
-        <v>forecastJIBAR3M</v>
+        <f>"Curve_Jibar3M"</f>
+        <v>Curve_Jibar3M</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="D15" s="11" t="str">
         <f>B10</f>
-        <v>ZARDiscount.16:53:46-1</v>
+        <v>ZARDiscount.19:46:46-34</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B15,C15,D15)</f>
-        <v>forecastJIBAR3M.16:53:54-2</v>
+        <v>Curve_Jibar3M.19:46:46-35</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B18" s="10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B20" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C20" s="11" t="str">
         <f>B10</f>
-        <v>ZARDiscount.16:53:46-1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+        <v>ZARDiscount.19:46:46-34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="11" t="str">
         <f>E15</f>
-        <v>forecastJIBAR3M.16:53:54-2</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+        <v>Curve_Jibar3M.19:46:46-35</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="str">
         <f>_xll.QSA.CreateCurveModel(C19,C20,C21)</f>
-        <v>curveModel.16:53:54-3</v>
+        <v>curveModel.19:46:46-36</v>
       </c>
     </row>
   </sheetData>
@@ -821,15 +819,15 @@
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
@@ -837,25 +835,25 @@
         <v>3</v>
       </c>
       <c r="C2" s="12">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B2)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B2)</f>
         <v>1000000</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" s="12">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B3)</f>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B3)</f>
         <v>0.24931506849315069</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="17">
+        <v>36</v>
+      </c>
+      <c r="G3" s="15">
         <f>_xll.QSA.GetDF(Curves!$B$10,C5)</f>
         <v>0.98091730138860533</v>
       </c>
@@ -864,62 +862,62 @@
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="15">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B4)</f>
+      <c r="C4" s="12">
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B4)</f>
         <v>7.3499999999999996E-2</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="17">
+        <v>37</v>
+      </c>
+      <c r="G4" s="15">
         <f>_xll.QSA.GetDF(Curves!$B$10,C6)</f>
         <v>0.9633461657801673</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="14">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B5)</f>
+        <v>25</v>
+      </c>
+      <c r="C5" s="12">
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B5)</f>
         <v>42905</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="16">
+        <v>30</v>
+      </c>
+      <c r="G5" s="14">
         <f>EDATE(C5,3)</f>
         <v>42997</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="14">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B6)</f>
+        <v>26</v>
+      </c>
+      <c r="C6" s="12">
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B6)</f>
         <v>42996</v>
       </c>
       <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="17">
+        <v>31</v>
+      </c>
+      <c r="G6" s="15">
         <f>_xll.QSA.GetDF(Curves!B10,G5)</f>
         <v>0.96315483520193168</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12" t="str">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B7)</f>
-        <v>ZAR:JIBAR:3M</v>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B7)</f>
+        <v>floatIndex.19:46:46-40</v>
       </c>
       <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="17">
+        <v>32</v>
+      </c>
+      <c r="G7" s="15">
         <f>(G5-C5)/365</f>
         <v>0.25205479452054796</v>
       </c>
@@ -928,48 +926,48 @@
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="str">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B8)</f>
-        <v>True</v>
+      <c r="C8" s="12" t="b">
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B8)</f>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G8" s="18">
+        <v>38</v>
+      </c>
+      <c r="G8" s="16">
         <f>(G3/G6-1)/G7</f>
         <v>7.3166485093756339E-2</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="12" t="str">
-        <f>_xll.QSA.GetResults(ZARFra!$B$10,B9)</f>
-        <v>ZAR</v>
+        <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B9)</f>
+        <v>ccy.19:46:46-39</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="17">
+        <v>33</v>
+      </c>
+      <c r="G9" s="15">
         <f>(G8-C4)*C2*C3/(1+G8*C3)</f>
         <v>-81.660677847241701</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
-        <v>35</v>
-      </c>
-      <c r="G10" s="17">
+        <v>34</v>
+      </c>
+      <c r="G10" s="15">
         <f>G9*G3</f>
         <v>-80.102371743480589</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="19">
+        <v>39</v>
+      </c>
+      <c r="G11" s="17">
         <f>G10-ZARFra!C18</f>
         <v>0</v>
       </c>

--- a/ExcelExamples/ZARFRA.xlsx
+++ b/ExcelExamples/ZARFRA.xlsx
@@ -1,17 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9a2c6574b59b6aaf/Documents/GitHub/Riskworx/QuantSA/ExcelExamples/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_8882F8962C5E824CC5781B0B8B0094EEB44C17F5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{52C05E04-02D3-4107-A04C-8678F4574BF5}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296"/>
+    <workbookView xWindow="-110" yWindow="610" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ZARFra" sheetId="1" r:id="rId1"/>
     <sheet name="Curves" sheetId="2" r:id="rId2"/>
     <sheet name="TradeInfo&amp;Test" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
+  <calcPr calcId="191029" calcMode="manual"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -144,7 +161,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
@@ -274,6 +291,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -321,7 +341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,9 +374,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -389,6 +426,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -564,20 +618,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="31.44140625" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -593,7 +647,7 @@
         <v>42811</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
@@ -601,7 +655,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -609,7 +663,7 @@
         <v>7.3499999999999996E-2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
@@ -617,7 +671,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>2</v>
       </c>
@@ -625,18 +679,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateZARFRA(C2,C3,C4,C5,C6,C7)</f>
-        <v>Fra00001.19:46:46-37</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+        <v>Fra00001.16:40:44-8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
         <v>35</v>
       </c>
@@ -644,18 +698,18 @@
         <v>42808</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B15" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="str">
         <f>_xll.QSA.Value(C2&amp;":Value",B10,C13,Curves!B26)</f>
-        <v>Fra00001:Value.19:46:46-38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+        <v>Fra00001:Value.16:40:44-9</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
@@ -670,22 +724,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:E26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="55.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -693,7 +747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
@@ -701,7 +755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -709,7 +763,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7" s="3">
         <f>ZARFra!C13</f>
         <v>42808</v>
@@ -718,7 +772,7 @@
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8" s="3">
         <f>EDATE(B7,10*12)</f>
         <v>46460</v>
@@ -727,18 +781,18 @@
         <v>7.2499999999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
-        <v>ZARDiscount.19:46:46-34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.35">
+        <v>ZARDiscount.16:38:46-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" ht="21" x14ac:dyDescent="0.5">
       <c r="B13" s="10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14" s="1" t="s">
         <v>0</v>
       </c>
@@ -749,7 +803,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="2:5" ht="15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="str">
         <f>"Curve_Jibar3M"</f>
         <v>Curve_Jibar3M</v>
@@ -759,19 +813,19 @@
       </c>
       <c r="D15" s="11" t="str">
         <f>B10</f>
-        <v>ZARDiscount.19:46:46-34</v>
+        <v>ZARDiscount.16:38:46-2</v>
       </c>
       <c r="E15" s="7" t="str">
         <f>_xll.QSA.CreateRateForecastCurveFromDiscount(B15,C15,D15)</f>
-        <v>Curve_Jibar3M.19:46:46-35</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.35">
+        <v>Curve_Jibar3M.16:38:46-3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="21" x14ac:dyDescent="0.5">
       <c r="B18" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
@@ -779,34 +833,34 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="11" t="str">
         <f>B10</f>
-        <v>ZARDiscount.19:46:46-34</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+        <v>ZARDiscount.16:38:46-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C21" s="11" t="str">
         <f>E15</f>
-        <v>Curve_Jibar3M.19:46:46-35</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+        <v>Curve_Jibar3M.16:38:46-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="11"/>
     </row>
-    <row r="26" spans="2:3" ht="15" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="str">
         <f>_xll.QSA.CreateCurveModel(C19,C20,C21)</f>
-        <v>curveModel.19:46:46-36</v>
+        <v>curveModel.16:38:46-4</v>
       </c>
     </row>
   </sheetData>
@@ -815,22 +869,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -842,7 +896,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
@@ -858,7 +912,7 @@
         <v>0.98091730138860533</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -874,7 +928,7 @@
         <v>0.9633461657801673</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
@@ -890,7 +944,7 @@
         <v>42997</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>26</v>
       </c>
@@ -906,13 +960,13 @@
         <v>0.96315483520193168</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="12" t="str">
         <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B7)</f>
-        <v>floatIndex.19:46:46-40</v>
+        <v>ZAR.JIBAR.3M</v>
       </c>
       <c r="F7" t="s">
         <v>32</v>
@@ -922,7 +976,7 @@
         <v>0.25205479452054796</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>2</v>
       </c>
@@ -938,13 +992,13 @@
         <v>7.3166485093756339E-2</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="12" t="str">
         <f>_xll.QSA.ViewObjectPropertyValue(ZARFra!$B$10,B9)</f>
-        <v>ccy.19:46:46-39</v>
+        <v>ERROR: ccy does not appear in the provided object</v>
       </c>
       <c r="F9" t="s">
         <v>33</v>
@@ -954,7 +1008,7 @@
         <v>-81.660677847241701</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F10" t="s">
         <v>34</v>
       </c>
@@ -963,7 +1017,7 @@
         <v>-80.102371743480589</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
       <c r="F11" t="s">
         <v>39</v>
       </c>
